--- a/Trabalhos/Trabalho excel planilhas/Planilhas/Informações dos alunos - Graduação.xlsx
+++ b/Trabalhos/Trabalho excel planilhas/Planilhas/Informações dos alunos - Graduação.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D885888-3C0D-4D04-932C-424B17E769B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -261,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,9 +395,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,18 +419,21 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -444,14 +445,877 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$N$27:$N$28</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Alunos por curso</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alunos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plan1!$M$29:$M$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Sistemas da informação</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Marketing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Psicologia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Engenharia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$N$29:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8B0-406F-8DFA-00DD57AD177C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29CABD8A-1E4C-48A6-9684-91B883E6E911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -489,9 +1353,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,9 +1388,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,9 +1440,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -734,11 +1632,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,528 +1651,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="6:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="6:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>44982</v>
       </c>
     </row>
     <row r="4" spans="6:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>44983</v>
       </c>
     </row>
     <row r="5" spans="6:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>44984</v>
       </c>
     </row>
     <row r="6" spans="6:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>44985</v>
       </c>
     </row>
     <row r="7" spans="6:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>44986</v>
       </c>
     </row>
     <row r="8" spans="6:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>44987</v>
       </c>
     </row>
     <row r="9" spans="6:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>44988</v>
       </c>
     </row>
     <row r="10" spans="6:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>44989</v>
       </c>
     </row>
     <row r="11" spans="6:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>44990</v>
       </c>
     </row>
     <row r="12" spans="6:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="8">
         <v>44991</v>
       </c>
     </row>
     <row r="13" spans="6:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="8">
         <v>44992</v>
       </c>
     </row>
     <row r="14" spans="6:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="8">
         <v>44993</v>
       </c>
     </row>
     <row r="15" spans="6:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="8">
         <v>44994</v>
       </c>
     </row>
     <row r="16" spans="6:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="8">
         <v>44995</v>
       </c>
     </row>
     <row r="17" spans="6:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="8">
         <v>44996</v>
       </c>
     </row>
     <row r="18" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="8">
         <v>44997</v>
       </c>
     </row>
     <row r="19" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="8">
         <v>44998</v>
       </c>
     </row>
     <row r="20" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="8">
         <v>44999</v>
       </c>
     </row>
     <row r="21" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="8">
         <v>45000</v>
       </c>
     </row>
     <row r="22" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="8">
         <v>45001</v>
       </c>
     </row>
     <row r="23" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="8">
         <v>45002</v>
       </c>
     </row>
     <row r="24" spans="6:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>45003</v>
       </c>
     </row>
     <row r="27" spans="6:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="6:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="29" spans="6:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="11">
         <f>COUNTIF(G3:G24,"Sistemas da informação")</f>
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="6:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M30" s="14" t="s">
+      <c r="M30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="11">
         <f>COUNTIF(G3:G24,"Marketing")</f>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="6:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M31" s="14" t="s">
+      <c r="M31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="11">
         <f>COUNTIF(G3:G24,"Psicologia")</f>
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="6:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K32" s="15"/>
-      <c r="M32" s="14" t="s">
+      <c r="K32" s="12"/>
+      <c r="M32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="11">
         <f>COUNTIF(G3:G24,"Engenharia")</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="15"/>
+      <c r="K37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1282,15 +2180,16 @@
     <mergeCell ref="M27:N27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I4:I24" r:id="rId2" display="exemplo@gmail.com"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I4:I24" r:id="rId2" display="exemplo@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1302,7 +2201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
